--- a/biology/Botanique/Illustrateur_botanique/Illustrateur_botanique.xlsx
+++ b/biology/Botanique/Illustrateur_botanique/Illustrateur_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un illustrateur botanique  est une personne qui illustre des sujets botaniques, tels que fleurs, fruits, arbres, etc., par différents procédés artistiques, peinture, aquarelle, dessins, gravure… Ce travail demande un grand savoir-faire artistique, de l'attention pour les détails, ainsi que de bonnes connaissances techniques en botanique. Il faut également différencier le dessin purement technique (exemple : anatomique, descriptif, dissection, coupe...) de l'illustration proprement dite qui confère au sujet un aspect vivant et permettant de le reconnaître dans la nature (contrairement à une planche anatomique). Les premiers dessins purement techniques datent de l'antiquité, tandis que l'illustration est née au XVIIIe siècle. Jean-François Clermont peut être considéré comme le père de la discipline, sinon son principal inspirateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'illustrateurs botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les illustrateurs botaniques les plus célèbres on peut citer :
 George French Angas
